--- a/test/data/pdb_metafile_sample2.xlsx
+++ b/test/data/pdb_metafile_sample2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/qzwk_dir/qzModules/ProteinStructureUtils/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D7000C-E206-6A4E-AA4A-B9210F059723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDBA5BE-3C22-F145-A46F-2FA37A01D083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14020"/>
+    <workbookView xWindow="480" yWindow="980" windowWidth="25040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdb_metafile_sample2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Narrative ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Feature ID</t>
   </si>
   <si>
-    <t>PDB molecule</t>
-  </si>
-  <si>
     <t>PDB filename</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>JCVISYN3_0001</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>1fat.pdb</t>
   </si>
   <si>
@@ -58,18 +52,12 @@
     <t>JCVISYN3_0002</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>1nqg.pdb</t>
   </si>
   <si>
     <t>JCVISYN3_0003</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>1fat.cif</t>
   </si>
   <si>
@@ -77,9 +65,6 @@
   </si>
   <si>
     <t>JCVISYN3_0004</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>5o5y.pdb</t>
@@ -88,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -922,21 +907,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,88 +938,73 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50569</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50569</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50569</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50569</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/pdb_metafile_sample2.xlsx
+++ b/test/data/pdb_metafile_sample2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/qzwk_dir/qzModules/ProteinStructureUtils/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDBA5BE-3C22-F145-A46F-2FA37A01D083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC017B-9B24-C948-8CFB-515989029F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="980" windowWidth="25040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="1060" windowWidth="25040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdb_metafile_sample2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Narrative ID</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>5o5y.pdb</t>
+  </si>
+  <si>
+    <t>From RCSB</t>
+  </si>
+  <si>
+    <t>6ift</t>
+  </si>
+  <si>
+    <t>6ifv</t>
+  </si>
+  <si>
+    <t>6ifw</t>
   </si>
 </sst>
 </file>
@@ -908,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,7 +934,7 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,8 +950,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50569</v>
       </c>
@@ -955,8 +970,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50569</v>
       </c>
@@ -972,8 +990,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50569</v>
       </c>
@@ -989,8 +1010,11 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50569</v>
       </c>
@@ -1004,6 +1028,69 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>57196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>57197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>57198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/test/data/pdb_metafile_sample2.xlsx
+++ b/test/data/pdb_metafile_sample2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/qzwk_dir/qzModules/ProteinStructureUtils/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC017B-9B24-C948-8CFB-515989029F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B8F16-E5DD-EA4A-B38C-91EBDFBF14FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1060" windowWidth="25040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="1000" windowWidth="25040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdb_metafile_sample2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Narrative ID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>5o5y.pdb</t>
-  </si>
-  <si>
-    <t>From RCSB</t>
   </si>
   <si>
     <t>6ift</t>
@@ -920,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,7 +931,7 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,11 +947,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50569</v>
       </c>
@@ -970,11 +964,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50569</v>
       </c>
@@ -990,11 +981,8 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50569</v>
       </c>
@@ -1010,11 +998,8 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50569</v>
       </c>
@@ -1030,11 +1015,8 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>57196</v>
       </c>
@@ -1045,16 +1027,13 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>57197</v>
       </c>
@@ -1065,16 +1044,13 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>57198</v>
       </c>
@@ -1085,12 +1061,9 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/test/data/pdb_metafile_sample2.xlsx
+++ b/test/data/pdb_metafile_sample2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qzhang/qzwk_dir/qzModules/ProteinStructureUtils/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B8F16-E5DD-EA4A-B38C-91EBDFBF14FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702CFC0B-02EF-EE4A-AA59-03AF0504B726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1000" windowWidth="25040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="900" windowWidth="25040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pdb_metafile_sample2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Narrative ID</t>
   </si>
@@ -31,45 +31,27 @@
     <t>Feature ID</t>
   </si>
   <si>
-    <t>PDB filename</t>
-  </si>
-  <si>
-    <t>Is model</t>
-  </si>
-  <si>
     <t>JCVI_Syn3.kbase</t>
   </si>
   <si>
     <t>JCVISYN3_0001</t>
   </si>
   <si>
-    <t>1fat.pdb</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>JCVISYN3_0002</t>
   </si>
   <si>
-    <t>1nqg.pdb</t>
-  </si>
-  <si>
     <t>JCVISYN3_0003</t>
   </si>
   <si>
-    <t>1fat.cif</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>JCVISYN3_0004</t>
   </si>
   <si>
-    <t>5o5y.pdb</t>
-  </si>
-  <si>
     <t>6ift</t>
   </si>
   <si>
@@ -77,6 +59,33 @@
   </si>
   <si>
     <t>6ifw</t>
+  </si>
+  <si>
+    <t>PDB or RCSB ID</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is model</t>
+  </si>
+  <si>
+    <t>From RCSB</t>
+  </si>
+  <si>
+    <t>1fat</t>
+  </si>
+  <si>
+    <t>1nqg</t>
+  </si>
+  <si>
+    <t>pdb</t>
+  </si>
+  <si>
+    <t>cif</t>
+  </si>
+  <si>
+    <t>5o5y</t>
   </si>
 </sst>
 </file>
@@ -917,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,7 +940,7 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,129 +951,177 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50569</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="G2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50569</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="G3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50569</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50569</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+      <c r="G5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>57196</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+      <c r="G6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>57197</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>57198</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
+      <c r="G8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
